--- a/StructureDefinition-ext-R5-MedicationKnowledge.indicationGuideline.xlsx
+++ b/StructureDefinition-ext-R5-MedicationKnowledge.indicationGuideline.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -460,8 +460,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
-Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:indication.extension:concept.id</t>
@@ -492,8 +491,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:indication.extension:reference.id</t>
@@ -508,7 +506,7 @@
     <t>Extension.extension:indication.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-ClinicalUseDefinition|0.0.1-snapshot-3|Basic|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-ClinicalUseDefinition|Basic)
 </t>
   </si>
   <si>
